--- a/biology/Botanique/Lambrusco/Lambrusco.xlsx
+++ b/biology/Botanique/Lambrusco/Lambrusco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lambrusco est un vin italien, le plus souvent effervescent. Traditionnellement rouge il se décline aussi aujourd'hui en blanc et rosé.
 </t>
@@ -511,13 +523,11 @@
           <t>Données géographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce vin provient principalement de la ville de Modène.
-Région
-Au centre-nord de l'Italie (les régions de Lombardie et d'Émilie-Romagne) se trouve une région viticole atypique, à la surface majoritairement plane : la très fertile plaine du Pô, au premier abord plus propice à la production de produits laitiers et de fruits qu'à celle du vin. Malgré cela, la région ne manque pas de vin, des vignes étant plantées sur toutes les collines et même, dans un cas particulier, au cœur de la plaine.
-Climat
-Le Pô a une grosse influence sur le climat des plaines du nord de l'Italie ; il engendre des brumes et des brouillards en hiver et augmente l'humidité de l'air en été.
 </t>
         </is>
       </c>
@@ -543,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cépage</t>
+          <t>Données géographiques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le lambrusco est élaboré à partir d'une famille de cépages : les lambruscos. Cette famille compte pas moins d'une soixantaine de variétés, dont les trois principales sont le Salamino, la Grasparossa et le Sorbara. Il ne semble pas qu'il y ait de rapport direct entre les cépages Lambrusco et la lambrusque, ou vigne sauvage des forêts.
+          <t>Région</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au centre-nord de l'Italie (les régions de Lombardie et d'Émilie-Romagne) se trouve une région viticole atypique, à la surface majoritairement plane : la très fertile plaine du Pô, au premier abord plus propice à la production de produits laitiers et de fruits qu'à celle du vin. Malgré cela, la région ne manque pas de vin, des vignes étant plantées sur toutes les collines et même, dans un cas particulier, au cœur de la plaine.
 </t>
         </is>
       </c>
@@ -574,10 +590,82 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Données géographiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Pô a une grosse influence sur le climat des plaines du nord de l'Italie ; il engendre des brumes et des brouillards en hiver et augmente l'humidité de l'air en été.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lambrusco</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lambrusco</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cépage</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lambrusco est élaboré à partir d'une famille de cépages : les lambruscos. Cette famille compte pas moins d'une soixantaine de variétés, dont les trois principales sont le Salamino, la Grasparossa et le Sorbara. Il ne semble pas qu'il y ait de rapport direct entre les cépages Lambrusco et la lambrusque, ou vigne sauvage des forêts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lambrusco</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lambrusco</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Originalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe plusieurs types de vin de Lambrusco, avec différentes teneurs en sucre, et différents degrés d'effervescence. Pour les autres types que le secco, la fermentation de ces vins est volontairement arrêtée avant que tout le sucre ne soit transformé en alcool.
 Dans le passé, les méthodes de production étaient assez empiriques. Il n'était pas rare de voir la fermentation redémarrer en bouteille. Ces techniques sont aujourd'hui mieux maîtrisées. Le lambrusco doux est commercialisé sous le nom d'amabile donné par les œnologues Giovanna Korchia-Blanc et Danielle Borel. À côté de la méthode en cuve close (la plus employée), se développe également une production en méthode classique (refermentation en bouteille, de type champenois), tandis que l'on voit également un retour à la méthode ancestrale.
@@ -588,31 +676,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Lambrusco</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lambrusco</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Appellations DOP</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Depuis le 1er août 2009, cinq lambrusco cultivés dans les provinces de Modène, de Reggio d'Émilie et de Mantoue sont protégés par le label de qualité Denominazione di Origine Protetta (DOP).
 Lambrusco Grasparossa di Castelvetro
@@ -625,31 +715,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Lambrusco</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lambrusco</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Notice de la Commission européenne.</t>
         </is>
